--- a/Code/Results/Cases/Case_4_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.75611661418261</v>
+        <v>14.96379729463272</v>
       </c>
       <c r="C2">
-        <v>6.225641451703338</v>
+        <v>5.7370103160159</v>
       </c>
       <c r="D2">
-        <v>9.431630578426157</v>
+        <v>13.72652201983776</v>
       </c>
       <c r="E2">
-        <v>8.604795921222189</v>
+        <v>14.0405348947244</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.140385028185623</v>
+        <v>3.72388950926206</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.68724453317262</v>
+        <v>31.80051502036775</v>
       </c>
       <c r="J2">
-        <v>4.911049105139989</v>
+        <v>8.449212012968836</v>
       </c>
       <c r="K2">
-        <v>11.0195723322086</v>
+        <v>12.16185530035756</v>
       </c>
       <c r="L2">
-        <v>7.855631686979474</v>
+        <v>12.60837900061915</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.98619010412598</v>
+        <v>33.32801034154452</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.93150608653111</v>
+        <v>14.79157065967774</v>
       </c>
       <c r="C3">
-        <v>6.026617355357591</v>
+        <v>5.660145573849797</v>
       </c>
       <c r="D3">
-        <v>9.209305368855953</v>
+        <v>13.72123069779274</v>
       </c>
       <c r="E3">
-        <v>8.553831273342654</v>
+        <v>14.06127630171764</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.146009066548626</v>
+        <v>3.726004812796485</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.81120568141582</v>
+        <v>31.89480421951064</v>
       </c>
       <c r="J3">
-        <v>4.935641319610634</v>
+        <v>8.458965415706086</v>
       </c>
       <c r="K3">
-        <v>10.32139568078494</v>
+        <v>12.04347185962412</v>
       </c>
       <c r="L3">
-        <v>7.723779088580907</v>
+        <v>12.61348765441675</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>22.01362745935241</v>
+        <v>33.41467150363764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.40203492796888</v>
+        <v>14.68758061921831</v>
       </c>
       <c r="C4">
-        <v>5.900750356434793</v>
+        <v>5.611710624988963</v>
       </c>
       <c r="D4">
-        <v>9.075341659176662</v>
+        <v>13.72039603644915</v>
       </c>
       <c r="E4">
-        <v>8.526276078593659</v>
+        <v>14.07582624258129</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.149570382585354</v>
+        <v>3.727373024527662</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>20.89965815117086</v>
+        <v>31.95762479314491</v>
       </c>
       <c r="J4">
-        <v>4.951298519768186</v>
+        <v>8.465288192502678</v>
       </c>
       <c r="K4">
-        <v>9.86866201292885</v>
+        <v>11.97228075954733</v>
       </c>
       <c r="L4">
-        <v>7.645215421164823</v>
+        <v>12.61834408682</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>22.04501289720559</v>
+        <v>33.47350573933979</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.18059331701007</v>
+        <v>14.64569232744011</v>
       </c>
       <c r="C5">
-        <v>5.848571766392943</v>
+        <v>5.591671605312438</v>
       </c>
       <c r="D5">
-        <v>9.021451391990878</v>
+        <v>13.72066465557598</v>
       </c>
       <c r="E5">
-        <v>8.515976607204028</v>
+        <v>14.08221216645517</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.151049485949215</v>
+        <v>3.727948090178393</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>20.93869817251331</v>
+        <v>31.98446302426024</v>
       </c>
       <c r="J5">
-        <v>4.957821195413426</v>
+        <v>8.467949051749581</v>
       </c>
       <c r="K5">
-        <v>9.678115403125677</v>
+        <v>11.94367508427839</v>
       </c>
       <c r="L5">
-        <v>7.613826696330911</v>
+        <v>12.62075644218647</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.06133112399482</v>
+        <v>33.49889397478852</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.14348517588278</v>
+        <v>14.63876765423858</v>
       </c>
       <c r="C6">
-        <v>5.839855099881635</v>
+        <v>5.588326246579133</v>
       </c>
       <c r="D6">
-        <v>9.012547079375887</v>
+        <v>13.7207460697088</v>
       </c>
       <c r="E6">
-        <v>8.514322204224639</v>
+        <v>14.0833001389833</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.151296789689156</v>
+        <v>3.728044638475681</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>20.94535855443985</v>
+        <v>31.9889942697364</v>
       </c>
       <c r="J6">
-        <v>4.958912930484666</v>
+        <v>8.468395982906825</v>
       </c>
       <c r="K6">
-        <v>9.646109617343646</v>
+        <v>11.93895044153702</v>
       </c>
       <c r="L6">
-        <v>7.608653164290256</v>
+        <v>12.62118320725416</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.06425016279215</v>
+        <v>33.50319496013544</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.39907125857067</v>
+        <v>14.68701366038339</v>
       </c>
       <c r="C7">
-        <v>5.900050198831353</v>
+        <v>5.61144157816978</v>
       </c>
       <c r="D7">
-        <v>9.074611956970685</v>
+        <v>13.72039719233638</v>
       </c>
       <c r="E7">
-        <v>8.526133427233793</v>
+        <v>14.07591051570052</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.149590216738527</v>
+        <v>3.727380709100483</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>20.9001726715368</v>
+        <v>31.9579817296294</v>
       </c>
       <c r="J7">
-        <v>4.951385908256142</v>
+        <v>8.465323736213154</v>
       </c>
       <c r="K7">
-        <v>9.86611674949971</v>
+        <v>11.97189329482601</v>
       </c>
       <c r="L7">
-        <v>7.644789533067166</v>
+        <v>12.61837486509722</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>22.04521885140073</v>
+        <v>33.47384241546887</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.47667296896791</v>
+        <v>14.90407683282614</v>
       </c>
       <c r="C8">
-        <v>6.157798262850049</v>
+        <v>5.710770756371704</v>
       </c>
       <c r="D8">
-        <v>9.354481195427592</v>
+        <v>13.72419758524432</v>
       </c>
       <c r="E8">
-        <v>8.586441774316604</v>
+        <v>14.04731015663969</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.142302152412144</v>
+        <v>3.724604493908675</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.72735877112863</v>
+        <v>31.83200311982507</v>
       </c>
       <c r="J8">
-        <v>4.919414057840623</v>
+        <v>8.452505785705302</v>
       </c>
       <c r="K8">
-        <v>10.78382637959371</v>
+        <v>12.1207435651976</v>
       </c>
       <c r="L8">
-        <v>7.809686930039798</v>
+        <v>12.6097841025326</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.99255581165556</v>
+        <v>33.3567230601596</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.40147931270341</v>
+        <v>15.34161147481184</v>
       </c>
       <c r="C9">
-        <v>6.632859097038827</v>
+        <v>5.895282238302995</v>
       </c>
       <c r="D9">
-        <v>9.9208653254541</v>
+        <v>13.7507215410252</v>
       </c>
       <c r="E9">
-        <v>8.73477379937369</v>
+        <v>14.00560479374263</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.128837387699848</v>
+        <v>3.719708531232914</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.49146763561044</v>
+        <v>31.62407206974585</v>
       </c>
       <c r="J9">
-        <v>4.861043471187335</v>
+        <v>8.430009672818089</v>
       </c>
       <c r="K9">
-        <v>12.39331378047763</v>
+        <v>12.42321657362708</v>
       </c>
       <c r="L9">
-        <v>8.150946954104024</v>
+        <v>12.60654063370048</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>22.0104236564638</v>
+        <v>33.17173512642559</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.74341464381508</v>
+        <v>15.66750961381013</v>
       </c>
       <c r="C10">
-        <v>6.961955145598988</v>
+        <v>6.024022846283884</v>
       </c>
       <c r="D10">
-        <v>10.34434392934873</v>
+        <v>13.78170570245071</v>
       </c>
       <c r="E10">
-        <v>8.862594992141164</v>
+        <v>13.98370409503914</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.119403465144231</v>
+        <v>3.716442123642684</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.38831031410739</v>
+        <v>31.49517878894396</v>
       </c>
       <c r="J10">
-        <v>4.820653971562308</v>
+        <v>8.415075106352479</v>
       </c>
       <c r="K10">
-        <v>13.46131867156251</v>
+        <v>12.65012403610086</v>
       </c>
       <c r="L10">
-        <v>8.411119021617914</v>
+        <v>12.61238939931406</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>22.10542403539803</v>
+        <v>33.06314218855658</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.34981724098327</v>
+        <v>15.81614142925975</v>
       </c>
       <c r="C11">
-        <v>7.107132986003176</v>
+        <v>6.080998688944072</v>
       </c>
       <c r="D11">
-        <v>10.53795409025215</v>
+        <v>13.79826387375404</v>
       </c>
       <c r="E11">
-        <v>8.924929387703973</v>
+        <v>13.97563229851684</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.115200567319783</v>
+        <v>3.715027197734524</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>20.35831680604428</v>
+        <v>31.4417320240833</v>
       </c>
       <c r="J11">
-        <v>4.802788754828078</v>
+        <v>8.408623565183355</v>
       </c>
       <c r="K11">
-        <v>13.92273665655309</v>
+        <v>12.753986725103</v>
       </c>
       <c r="L11">
-        <v>8.531233517250316</v>
+        <v>12.61682234453704</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>22.16816799882288</v>
+        <v>33.01968713900409</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.57477296382659</v>
+        <v>15.87243012364965</v>
       </c>
       <c r="C12">
-        <v>7.161444609203452</v>
+        <v>6.102336650086073</v>
       </c>
       <c r="D12">
-        <v>10.61136110831604</v>
+        <v>13.80488484162091</v>
       </c>
       <c r="E12">
-        <v>8.949142566248204</v>
+        <v>13.97284699422125</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.113620840278481</v>
+        <v>3.714501551877343</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>20.34954286417333</v>
+        <v>31.42223962841092</v>
       </c>
       <c r="J12">
-        <v>4.796093914864566</v>
+        <v>8.406229494243252</v>
       </c>
       <c r="K12">
-        <v>14.09399041483621</v>
+        <v>12.79337728896974</v>
       </c>
       <c r="L12">
-        <v>8.576947804729894</v>
+        <v>12.6187543221597</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>22.19488062004961</v>
+        <v>33.00408771250005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.52653169824875</v>
+        <v>15.86030789900808</v>
       </c>
       <c r="C13">
-        <v>7.149777323582823</v>
+        <v>6.097751843645571</v>
       </c>
       <c r="D13">
-        <v>10.5955482505287</v>
+        <v>13.80344335672954</v>
       </c>
       <c r="E13">
-        <v>8.943900664917617</v>
+        <v>13.97343480298627</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.113960552543589</v>
+        <v>3.71461430823762</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>20.35131512541997</v>
+        <v>31.4264044410798</v>
       </c>
       <c r="J13">
-        <v>4.797532685802361</v>
+        <v>8.406742925157809</v>
       </c>
       <c r="K13">
-        <v>14.05726178708309</v>
+        <v>12.78489166631761</v>
       </c>
       <c r="L13">
-        <v>8.56709256206099</v>
+        <v>12.61832699565212</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>22.18899393196718</v>
+        <v>33.0074092359616</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.36841784082729</v>
+        <v>15.82077251276282</v>
       </c>
       <c r="C14">
-        <v>7.111614603383008</v>
+        <v>6.082758987260771</v>
       </c>
       <c r="D14">
-        <v>10.54399176075022</v>
+        <v>13.79880157625422</v>
       </c>
       <c r="E14">
-        <v>8.926909190346421</v>
+        <v>13.97539771606527</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.11507037088733</v>
+        <v>3.714983749284379</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>20.35754230565703</v>
+        <v>31.44011340286576</v>
       </c>
       <c r="J14">
-        <v>4.802236573051856</v>
+        <v>8.408425623050618</v>
       </c>
       <c r="K14">
-        <v>13.93689523006369</v>
+        <v>12.7572263909991</v>
       </c>
       <c r="L14">
-        <v>8.534989987541527</v>
+        <v>12.61697622188751</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>22.17030564914113</v>
+        <v>33.01838660135096</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.27096143525299</v>
+        <v>15.79655515284578</v>
       </c>
       <c r="C15">
-        <v>7.088152045105637</v>
+        <v>6.073544231167292</v>
       </c>
       <c r="D15">
-        <v>10.51242244660284</v>
+        <v>13.79600392101373</v>
       </c>
       <c r="E15">
-        <v>8.916580847044635</v>
+        <v>13.97663537065247</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.115751677281243</v>
+        <v>3.715211363685373</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>20.36169767348603</v>
+        <v>31.4486078076151</v>
       </c>
       <c r="J15">
-        <v>4.80512691485192</v>
+        <v>8.409462696945289</v>
       </c>
       <c r="K15">
-        <v>13.86271582176563</v>
+        <v>12.74028747659154</v>
       </c>
       <c r="L15">
-        <v>8.515355456712566</v>
+        <v>12.61618177561151</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>22.15924740192801</v>
+        <v>33.02522207386921</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.70312718198668</v>
+        <v>15.65779955503881</v>
       </c>
       <c r="C16">
-        <v>6.952375104375798</v>
+        <v>6.020266583219874</v>
       </c>
       <c r="D16">
-        <v>10.33170628606322</v>
+        <v>13.78067286534763</v>
       </c>
       <c r="E16">
-        <v>8.858606108402906</v>
+        <v>13.98426960602655</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.11967984022338</v>
+        <v>3.716536016305845</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.39062378526722</v>
+        <v>31.49877611299876</v>
       </c>
       <c r="J16">
-        <v>4.821831499930847</v>
+        <v>8.415503597339169</v>
       </c>
       <c r="K16">
-        <v>13.43067552085579</v>
+        <v>12.64334651085397</v>
       </c>
       <c r="L16">
-        <v>8.40330262290251</v>
+        <v>12.6121352306163</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>22.10172886598816</v>
+        <v>33.06610180536155</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.34638630006971</v>
+        <v>15.57273912109548</v>
       </c>
       <c r="C17">
-        <v>6.867909859142389</v>
+        <v>5.987168929499956</v>
       </c>
       <c r="D17">
-        <v>10.22105468801593</v>
+        <v>13.77189630077313</v>
       </c>
       <c r="E17">
-        <v>8.824117686329473</v>
+        <v>13.98943686447054</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.122111703535495</v>
+        <v>3.717366790964811</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.41280995124592</v>
+        <v>31.53088193729291</v>
       </c>
       <c r="J17">
-        <v>4.832207469675405</v>
+        <v>8.419296992819826</v>
       </c>
       <c r="K17">
-        <v>13.15940238035404</v>
+        <v>12.5840176308234</v>
       </c>
       <c r="L17">
-        <v>8.334995412207293</v>
+        <v>12.61010568191874</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>22.07154725713754</v>
+        <v>33.09270363740575</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.13809495849173</v>
+        <v>15.52385320460521</v>
       </c>
       <c r="C18">
-        <v>6.818901834761032</v>
+        <v>5.967982995670109</v>
       </c>
       <c r="D18">
-        <v>10.15750444839108</v>
+        <v>13.76708034006231</v>
       </c>
       <c r="E18">
-        <v>8.804674697034354</v>
+        <v>13.99258695886877</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.123518849358053</v>
+        <v>3.71785131449659</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.42715537291404</v>
+        <v>31.54983657838476</v>
       </c>
       <c r="J18">
-        <v>4.838223457107017</v>
+        <v>8.421511083085161</v>
       </c>
       <c r="K18">
-        <v>13.00107199209558</v>
+        <v>12.5499555087706</v>
       </c>
       <c r="L18">
-        <v>8.295873970731932</v>
+        <v>12.60910525743329</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>22.05601691069538</v>
+        <v>33.1085637568484</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.07152994755637</v>
+        <v>15.50730942369251</v>
       </c>
       <c r="C19">
-        <v>6.802235874283537</v>
+        <v>5.961461653754075</v>
       </c>
       <c r="D19">
-        <v>10.1360050644044</v>
+        <v>13.76548970050409</v>
       </c>
       <c r="E19">
-        <v>8.79815908007787</v>
+        <v>13.99368412003475</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.123996755122131</v>
+        <v>3.718016515365396</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.4322801982659</v>
+        <v>31.55633812212714</v>
       </c>
       <c r="J19">
-        <v>4.840268693051656</v>
+        <v>8.422266278497473</v>
       </c>
       <c r="K19">
-        <v>12.94706774758359</v>
+        <v>12.53843434219943</v>
       </c>
       <c r="L19">
-        <v>8.282657567880817</v>
+        <v>12.60879524415017</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>22.05106839839825</v>
+        <v>33.11402976653699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.38468274462262</v>
+        <v>15.58179031621337</v>
       </c>
       <c r="C20">
-        <v>6.876945507573283</v>
+        <v>5.990707723228548</v>
       </c>
       <c r="D20">
-        <v>10.23282441458932</v>
+        <v>13.77280658510802</v>
       </c>
       <c r="E20">
-        <v>8.827748230395008</v>
+        <v>13.98886838038282</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.121851964441672</v>
+        <v>3.717277662193099</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.41028314546595</v>
+        <v>31.52741368273668</v>
       </c>
       <c r="J20">
-        <v>4.831097981154306</v>
+        <v>8.418889845433664</v>
       </c>
       <c r="K20">
-        <v>13.18851778673727</v>
+        <v>12.59032707981961</v>
       </c>
       <c r="L20">
-        <v>8.342249719070645</v>
+        <v>12.61030446619176</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.07456976894476</v>
+        <v>33.08981391656643</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.41498612234499</v>
+        <v>15.83238526649518</v>
       </c>
       <c r="C21">
-        <v>7.122842023391859</v>
+        <v>6.087169269984758</v>
       </c>
       <c r="D21">
-        <v>10.55913303621042</v>
+        <v>13.80015548972302</v>
       </c>
       <c r="E21">
-        <v>8.931883435262785</v>
+        <v>13.97481380273846</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.114744077272231</v>
+        <v>3.714874960268876</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>20.35564188434511</v>
+        <v>31.43606647616401</v>
       </c>
       <c r="J21">
-        <v>4.800853041225295</v>
+        <v>8.407930046202445</v>
       </c>
       <c r="K21">
-        <v>13.97234380915813</v>
+        <v>12.76535097920476</v>
       </c>
       <c r="L21">
-        <v>8.544413241207579</v>
+        <v>12.61736611479141</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.17571355148923</v>
+        <v>33.01513904045337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.06112472651778</v>
+        <v>15.9961707665</v>
       </c>
       <c r="C22">
-        <v>7.279675834668914</v>
+        <v>6.148823908733346</v>
       </c>
       <c r="D22">
-        <v>10.77290703512588</v>
+        <v>13.82007217826617</v>
       </c>
       <c r="E22">
-        <v>9.003491357514125</v>
+        <v>13.96720940521547</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.110167076520822</v>
+        <v>3.713363828570797</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>20.33506572350798</v>
+        <v>31.38071868342771</v>
       </c>
       <c r="J22">
-        <v>4.78149477761587</v>
+        <v>8.401052616180509</v>
       </c>
       <c r="K22">
-        <v>14.4643830620148</v>
+        <v>12.88007436186817</v>
       </c>
       <c r="L22">
-        <v>8.677867214884778</v>
+        <v>12.62345703846742</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.25909637833627</v>
+        <v>32.9713249494678</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.71873891406995</v>
+        <v>15.90877078998445</v>
       </c>
       <c r="C23">
-        <v>7.19632828360376</v>
+        <v>6.116047609646307</v>
       </c>
       <c r="D23">
-        <v>10.65877936747723</v>
+        <v>13.80925659605872</v>
       </c>
       <c r="E23">
-        <v>8.96494606434536</v>
+        <v>13.97112356052639</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.112603971130839</v>
+        <v>3.71416495037223</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>20.34461181420685</v>
+        <v>31.40986029846551</v>
       </c>
       <c r="J23">
-        <v>4.791790210983505</v>
+        <v>8.404697188439828</v>
       </c>
       <c r="K23">
-        <v>14.20361090361149</v>
+        <v>12.81882421801853</v>
       </c>
       <c r="L23">
-        <v>8.606526053652159</v>
+        <v>12.6200717085765</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.21296415539583</v>
+        <v>32.9942523612616</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.3673788821521</v>
+        <v>15.57769821584346</v>
       </c>
       <c r="C24">
-        <v>6.872861884793889</v>
+        <v>5.989108324965345</v>
       </c>
       <c r="D24">
-        <v>10.22750311553151</v>
+        <v>13.77239432949824</v>
       </c>
       <c r="E24">
-        <v>8.826105663134211</v>
+        <v>13.98912483328339</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.121969364274571</v>
+        <v>3.717317935813291</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.41142057213046</v>
+        <v>31.52898013384464</v>
       </c>
       <c r="J24">
-        <v>4.831599422776702</v>
+        <v>8.419073813282854</v>
       </c>
       <c r="K24">
-        <v>13.17536210201784</v>
+        <v>12.58747442955968</v>
       </c>
       <c r="L24">
-        <v>8.338969580128337</v>
+        <v>12.6102140774211</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.07319762885532</v>
+        <v>33.09111859520216</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.90145983838236</v>
+        <v>15.22226429749886</v>
       </c>
       <c r="C25">
-        <v>6.507757470422184</v>
+        <v>5.846525715572142</v>
       </c>
       <c r="D25">
-        <v>9.766120415977728</v>
+        <v>13.74151651722875</v>
       </c>
       <c r="E25">
-        <v>8.691370793689206</v>
+        <v>14.01535023656986</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.132395964207566</v>
+        <v>3.720974698417338</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.54351768245142</v>
+        <v>31.67613254170012</v>
       </c>
       <c r="J25">
-        <v>4.876385391535567</v>
+        <v>8.435814514011994</v>
       </c>
       <c r="K25">
-        <v>11.97813385912145</v>
+        <v>12.34043866649845</v>
       </c>
       <c r="L25">
-        <v>8.056863349081254</v>
+        <v>12.60596761780058</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.99179796230615</v>
+        <v>33.21698723409378</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_255/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_255/res_line/loading_percent.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.96379729463272</v>
+        <v>13.75611661418264</v>
       </c>
       <c r="C2">
-        <v>5.7370103160159</v>
+        <v>6.225641451703347</v>
       </c>
       <c r="D2">
-        <v>13.72652201983776</v>
+        <v>9.431630578426219</v>
       </c>
       <c r="E2">
-        <v>14.0405348947244</v>
+        <v>8.604795921222124</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.72388950926206</v>
+        <v>2.140385028185891</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.80051502036775</v>
+        <v>20.68724453317238</v>
       </c>
       <c r="J2">
-        <v>8.449212012968836</v>
+        <v>4.911049105139921</v>
       </c>
       <c r="K2">
-        <v>12.16185530035756</v>
+        <v>11.01957233220864</v>
       </c>
       <c r="L2">
-        <v>12.60837900061915</v>
+        <v>7.855631686979502</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>33.32801034154452</v>
+        <v>21.98619010412577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.79157065967774</v>
+        <v>12.93150608653112</v>
       </c>
       <c r="C3">
-        <v>5.660145573849797</v>
+        <v>6.026617355357443</v>
       </c>
       <c r="D3">
-        <v>13.72123069779274</v>
+        <v>9.20930536885608</v>
       </c>
       <c r="E3">
-        <v>14.06127630171764</v>
+        <v>8.553831273342661</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.726004812796485</v>
+        <v>2.146009066548895</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.89480421951064</v>
+        <v>20.81120568141598</v>
       </c>
       <c r="J3">
-        <v>8.458965415706086</v>
+        <v>4.935641319610603</v>
       </c>
       <c r="K3">
-        <v>12.04347185962412</v>
+        <v>10.3213956807849</v>
       </c>
       <c r="L3">
-        <v>12.61348765441675</v>
+        <v>7.723779088580998</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>33.41467150363764</v>
+        <v>22.01362745935261</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.68758061921831</v>
+        <v>12.40203492796888</v>
       </c>
       <c r="C4">
-        <v>5.611710624988963</v>
+        <v>5.900750356435044</v>
       </c>
       <c r="D4">
-        <v>13.72039603644915</v>
+        <v>9.075341659177024</v>
       </c>
       <c r="E4">
-        <v>14.07582624258129</v>
+        <v>8.526276078593707</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.727373024527662</v>
+        <v>2.149570382585754</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.95762479314491</v>
+        <v>20.89965815117099</v>
       </c>
       <c r="J4">
-        <v>8.465288192502678</v>
+        <v>4.951298519768053</v>
       </c>
       <c r="K4">
-        <v>11.97228075954733</v>
+        <v>9.868662012928894</v>
       </c>
       <c r="L4">
-        <v>12.61834408682</v>
+        <v>7.645215421164842</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>33.47350573933979</v>
+        <v>22.0450128972057</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.64569232744011</v>
+        <v>12.18059331701005</v>
       </c>
       <c r="C5">
-        <v>5.591671605312438</v>
+        <v>5.848571766392692</v>
       </c>
       <c r="D5">
-        <v>13.72066465557598</v>
+        <v>9.021451391990757</v>
       </c>
       <c r="E5">
-        <v>14.08221216645517</v>
+        <v>8.515976607203978</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.727948090178393</v>
+        <v>2.151049485949081</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.98446302426024</v>
+        <v>20.93869817251321</v>
       </c>
       <c r="J5">
-        <v>8.467949051749581</v>
+        <v>4.957821195413458</v>
       </c>
       <c r="K5">
-        <v>11.94367508427839</v>
+        <v>9.678115403125615</v>
       </c>
       <c r="L5">
-        <v>12.62075644218647</v>
+        <v>7.613826696330977</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>33.49889397478852</v>
+        <v>22.06133112399484</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.63876765423858</v>
+        <v>12.14348517588274</v>
       </c>
       <c r="C6">
-        <v>5.588326246579133</v>
+        <v>5.839855099881497</v>
       </c>
       <c r="D6">
-        <v>13.7207460697088</v>
+        <v>9.012547079375931</v>
       </c>
       <c r="E6">
-        <v>14.0833001389833</v>
+        <v>8.514322204224472</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.728044638475681</v>
+        <v>2.151296789689154</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.9889942697364</v>
+        <v>20.94535855443975</v>
       </c>
       <c r="J6">
-        <v>8.468395982906825</v>
+        <v>4.958912930484568</v>
       </c>
       <c r="K6">
-        <v>11.93895044153702</v>
+        <v>9.646109617343706</v>
       </c>
       <c r="L6">
-        <v>12.62118320725416</v>
+        <v>7.608653164290204</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>33.50319496013544</v>
+        <v>22.06425016279208</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.68701366038339</v>
+        <v>12.39907125857064</v>
       </c>
       <c r="C7">
-        <v>5.61144157816978</v>
+        <v>5.900050198831345</v>
       </c>
       <c r="D7">
-        <v>13.72039719233638</v>
+        <v>9.074611956970747</v>
       </c>
       <c r="E7">
-        <v>14.07591051570052</v>
+        <v>8.526133427233743</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.727380709100483</v>
+        <v>2.149590216738658</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.9579817296294</v>
+        <v>20.90017267153663</v>
       </c>
       <c r="J7">
-        <v>8.465323736213154</v>
+        <v>4.951385908256076</v>
       </c>
       <c r="K7">
-        <v>11.97189329482601</v>
+        <v>9.866116749499758</v>
       </c>
       <c r="L7">
-        <v>12.61837486509722</v>
+        <v>7.644789533067091</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>33.47384241546887</v>
+        <v>22.04521885140052</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.90407683282614</v>
+        <v>13.47667296896793</v>
       </c>
       <c r="C8">
-        <v>5.710770756371704</v>
+        <v>6.157798262850137</v>
       </c>
       <c r="D8">
-        <v>13.72419758524432</v>
+        <v>9.354481195427674</v>
       </c>
       <c r="E8">
-        <v>14.04731015663969</v>
+        <v>8.586441774316713</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.724604493908675</v>
+        <v>2.142302152412411</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.83200311982507</v>
+        <v>20.72735877112866</v>
       </c>
       <c r="J8">
-        <v>8.452505785705302</v>
+        <v>4.919414057840624</v>
       </c>
       <c r="K8">
-        <v>12.1207435651976</v>
+        <v>10.78382637959377</v>
       </c>
       <c r="L8">
-        <v>12.6097841025326</v>
+        <v>7.809686930039773</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>33.3567230601596</v>
+        <v>21.99255581165555</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.34161147481184</v>
+        <v>15.40147931270342</v>
       </c>
       <c r="C9">
-        <v>5.895282238302995</v>
+        <v>6.632859097038805</v>
       </c>
       <c r="D9">
-        <v>13.7507215410252</v>
+        <v>9.920865325454114</v>
       </c>
       <c r="E9">
-        <v>14.00560479374263</v>
+        <v>8.734773799373738</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.719708531232914</v>
+        <v>2.128837387699848</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.62407206974585</v>
+        <v>20.49146763561048</v>
       </c>
       <c r="J9">
-        <v>8.430009672818089</v>
+        <v>4.861043471187434</v>
       </c>
       <c r="K9">
-        <v>12.42321657362708</v>
+        <v>12.39331378047761</v>
       </c>
       <c r="L9">
-        <v>12.60654063370048</v>
+        <v>8.150946954104038</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.17173512642559</v>
+        <v>22.01042365646387</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.66750961381013</v>
+        <v>16.74341464381509</v>
       </c>
       <c r="C10">
-        <v>6.024022846283884</v>
+        <v>6.96195514559907</v>
       </c>
       <c r="D10">
-        <v>13.78170570245071</v>
+        <v>10.34434392934868</v>
       </c>
       <c r="E10">
-        <v>13.98370409503914</v>
+        <v>8.862594992141165</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.716442123642684</v>
+        <v>2.119403465144098</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.49517878894396</v>
+        <v>20.3883103141074</v>
       </c>
       <c r="J10">
-        <v>8.415075106352479</v>
+        <v>4.820653971562342</v>
       </c>
       <c r="K10">
-        <v>12.65012403610086</v>
+        <v>13.4613186715625</v>
       </c>
       <c r="L10">
-        <v>12.61238939931406</v>
+        <v>8.411119021617909</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.06314218855658</v>
+        <v>22.10542403539805</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.81614142925975</v>
+        <v>17.34981724098333</v>
       </c>
       <c r="C11">
-        <v>6.080998688944072</v>
+        <v>7.107132986003166</v>
       </c>
       <c r="D11">
-        <v>13.79826387375404</v>
+        <v>10.53795409025205</v>
       </c>
       <c r="E11">
-        <v>13.97563229851684</v>
+        <v>8.924929387703852</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.715027197734524</v>
+        <v>2.115200567319514</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.4417320240833</v>
+        <v>20.35831680604396</v>
       </c>
       <c r="J11">
-        <v>8.408623565183355</v>
+        <v>4.802788754828046</v>
       </c>
       <c r="K11">
-        <v>12.753986725103</v>
+        <v>13.92273665655312</v>
       </c>
       <c r="L11">
-        <v>12.61682234453704</v>
+        <v>8.531233517250243</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>33.01968713900409</v>
+        <v>22.1681679988226</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.87243012364965</v>
+        <v>17.57477296382661</v>
       </c>
       <c r="C12">
-        <v>6.102336650086073</v>
+        <v>7.161444609203528</v>
       </c>
       <c r="D12">
-        <v>13.80488484162091</v>
+        <v>10.61136110831604</v>
       </c>
       <c r="E12">
-        <v>13.97284699422125</v>
+        <v>8.949142566248263</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.714501551877343</v>
+        <v>2.113620840278216</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.42223962841092</v>
+        <v>20.34954286417342</v>
       </c>
       <c r="J12">
-        <v>8.406229494243252</v>
+        <v>4.796093914864601</v>
       </c>
       <c r="K12">
-        <v>12.79337728896974</v>
+        <v>14.09399041483621</v>
       </c>
       <c r="L12">
-        <v>12.6187543221597</v>
+        <v>8.576947804729903</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>33.00408771250005</v>
+        <v>22.19488062004969</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.86030789900808</v>
+        <v>17.52653169824877</v>
       </c>
       <c r="C13">
-        <v>6.097751843645571</v>
+        <v>7.149777323583018</v>
       </c>
       <c r="D13">
-        <v>13.80344335672954</v>
+        <v>10.59554825052867</v>
       </c>
       <c r="E13">
-        <v>13.97343480298627</v>
+        <v>8.943900664917582</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.71461430823762</v>
+        <v>2.113960552543324</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.4264044410798</v>
+        <v>20.35131512541987</v>
       </c>
       <c r="J13">
-        <v>8.406742925157809</v>
+        <v>4.797532685802426</v>
       </c>
       <c r="K13">
-        <v>12.78489166631761</v>
+        <v>14.05726178708314</v>
       </c>
       <c r="L13">
-        <v>12.61832699565212</v>
+        <v>8.567092562060964</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>33.0074092359616</v>
+        <v>22.18899393196704</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.82077251276282</v>
+        <v>17.36841784082731</v>
       </c>
       <c r="C14">
-        <v>6.082758987260771</v>
+        <v>7.11161460338299</v>
       </c>
       <c r="D14">
-        <v>13.79880157625422</v>
+        <v>10.54399176075018</v>
       </c>
       <c r="E14">
-        <v>13.97539771606527</v>
+        <v>8.926909190346374</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.714983749284379</v>
+        <v>2.11507037088733</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.44011340286576</v>
+        <v>20.3575423056569</v>
       </c>
       <c r="J14">
-        <v>8.408425623050618</v>
+        <v>4.802236573051856</v>
       </c>
       <c r="K14">
-        <v>12.7572263909991</v>
+        <v>13.93689523006372</v>
       </c>
       <c r="L14">
-        <v>12.61697622188751</v>
+        <v>8.534989987541492</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>33.01838660135096</v>
+        <v>22.17030564914099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79655515284578</v>
+        <v>17.27096143525297</v>
       </c>
       <c r="C15">
-        <v>6.073544231167292</v>
+        <v>7.08815204510563</v>
       </c>
       <c r="D15">
-        <v>13.79600392101373</v>
+        <v>10.51242244660289</v>
       </c>
       <c r="E15">
-        <v>13.97663537065247</v>
+        <v>8.916580847044685</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.715211363685373</v>
+        <v>2.115751677280977</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.4486078076151</v>
+        <v>20.36169767348618</v>
       </c>
       <c r="J15">
-        <v>8.409462696945289</v>
+        <v>4.805126914851887</v>
       </c>
       <c r="K15">
-        <v>12.74028747659154</v>
+        <v>13.86271582176558</v>
       </c>
       <c r="L15">
-        <v>12.61618177561151</v>
+        <v>8.51535545671258</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>33.02522207386921</v>
+        <v>22.15924740192817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.65779955503881</v>
+        <v>16.70312718198672</v>
       </c>
       <c r="C16">
-        <v>6.020266583219874</v>
+        <v>6.95237510437557</v>
       </c>
       <c r="D16">
-        <v>13.78067286534763</v>
+        <v>10.3317062860632</v>
       </c>
       <c r="E16">
-        <v>13.98426960602655</v>
+        <v>8.858606108402832</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.716536016305845</v>
+        <v>2.119679840223249</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.49877611299876</v>
+        <v>20.39062378526698</v>
       </c>
       <c r="J16">
-        <v>8.415503597339169</v>
+        <v>4.821831499930786</v>
       </c>
       <c r="K16">
-        <v>12.64334651085397</v>
+        <v>13.43067552085581</v>
       </c>
       <c r="L16">
-        <v>12.6121352306163</v>
+        <v>8.403302622902487</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.06610180536155</v>
+        <v>22.101728865988</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.57273912109548</v>
+        <v>16.34638630006972</v>
       </c>
       <c r="C17">
-        <v>5.987168929499956</v>
+        <v>6.867909859142469</v>
       </c>
       <c r="D17">
-        <v>13.77189630077313</v>
+        <v>10.22105468801597</v>
       </c>
       <c r="E17">
-        <v>13.98943686447054</v>
+        <v>8.824117686329428</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.717366790964811</v>
+        <v>2.122111703535497</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.53088193729291</v>
+        <v>20.41280995124581</v>
       </c>
       <c r="J17">
-        <v>8.419296992819826</v>
+        <v>4.83220746967531</v>
       </c>
       <c r="K17">
-        <v>12.5840176308234</v>
+        <v>13.15940238035406</v>
       </c>
       <c r="L17">
-        <v>12.61010568191874</v>
+        <v>8.334995412207267</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>33.09270363740575</v>
+        <v>22.07154725713747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.52385320460521</v>
+        <v>16.13809495849178</v>
       </c>
       <c r="C18">
-        <v>5.967982995670109</v>
+        <v>6.8189018347608</v>
       </c>
       <c r="D18">
-        <v>13.76708034006231</v>
+        <v>10.15750444839107</v>
       </c>
       <c r="E18">
-        <v>13.99258695886877</v>
+        <v>8.804674697034297</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.71785131449659</v>
+        <v>2.123518849358053</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.54983657838476</v>
+        <v>20.42715537291389</v>
       </c>
       <c r="J18">
-        <v>8.421511083085161</v>
+        <v>4.838223457106984</v>
       </c>
       <c r="K18">
-        <v>12.5499555087706</v>
+        <v>13.00107199209554</v>
       </c>
       <c r="L18">
-        <v>12.60910525743329</v>
+        <v>8.295873970731925</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>33.1085637568484</v>
+        <v>22.05601691069531</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.50730942369251</v>
+        <v>16.07152994755637</v>
       </c>
       <c r="C19">
-        <v>5.961461653754075</v>
+        <v>6.802235874283484</v>
       </c>
       <c r="D19">
-        <v>13.76548970050409</v>
+        <v>10.13600506440437</v>
       </c>
       <c r="E19">
-        <v>13.99368412003475</v>
+        <v>8.798159080077827</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.718016515365396</v>
+        <v>2.123996755122132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.55633812212714</v>
+        <v>20.4322801982659</v>
       </c>
       <c r="J19">
-        <v>8.422266278497473</v>
+        <v>4.84026869305159</v>
       </c>
       <c r="K19">
-        <v>12.53843434219943</v>
+        <v>12.94706774758359</v>
       </c>
       <c r="L19">
-        <v>12.60879524415017</v>
+        <v>8.282657567880729</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>33.11402976653699</v>
+        <v>22.05106839839825</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.58179031621337</v>
+        <v>16.38468274462264</v>
       </c>
       <c r="C20">
-        <v>5.990707723228548</v>
+        <v>6.876945507573373</v>
       </c>
       <c r="D20">
-        <v>13.77280658510802</v>
+        <v>10.2328244145893</v>
       </c>
       <c r="E20">
-        <v>13.98886838038282</v>
+        <v>8.827748230394997</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.717277662193099</v>
+        <v>2.12185196444167</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.52741368273668</v>
+        <v>20.41028314546609</v>
       </c>
       <c r="J20">
-        <v>8.418889845433664</v>
+        <v>4.831097981154368</v>
       </c>
       <c r="K20">
-        <v>12.59032707981961</v>
+        <v>13.18851778673725</v>
       </c>
       <c r="L20">
-        <v>12.61030446619176</v>
+        <v>8.342249719070633</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.08981391656643</v>
+        <v>22.07456976894487</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.83238526649518</v>
+        <v>17.41498612234504</v>
       </c>
       <c r="C21">
-        <v>6.087169269984758</v>
+        <v>7.122842023391951</v>
       </c>
       <c r="D21">
-        <v>13.80015548972302</v>
+        <v>10.55913303621039</v>
       </c>
       <c r="E21">
-        <v>13.97481380273846</v>
+        <v>8.931883435262794</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.714874960268876</v>
+        <v>2.114744077272496</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.43606647616401</v>
+        <v>20.35564188434512</v>
       </c>
       <c r="J21">
-        <v>8.407930046202445</v>
+        <v>4.800853041225263</v>
       </c>
       <c r="K21">
-        <v>12.76535097920476</v>
+        <v>13.97234380915819</v>
       </c>
       <c r="L21">
-        <v>12.61736611479141</v>
+        <v>8.544413241207581</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>33.01513904045337</v>
+        <v>22.17571355148927</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.9961707665</v>
+        <v>18.06112472651776</v>
       </c>
       <c r="C22">
-        <v>6.148823908733346</v>
+        <v>7.279675834668787</v>
       </c>
       <c r="D22">
-        <v>13.82007217826617</v>
+        <v>10.77290703512585</v>
       </c>
       <c r="E22">
-        <v>13.96720940521547</v>
+        <v>9.003491357514257</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.713363828570797</v>
+        <v>2.110167076520822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>31.38071868342771</v>
+        <v>20.33506572350816</v>
       </c>
       <c r="J22">
-        <v>8.401052616180509</v>
+        <v>4.781494777616</v>
       </c>
       <c r="K22">
-        <v>12.88007436186817</v>
+        <v>14.46438306201475</v>
       </c>
       <c r="L22">
-        <v>12.62345703846742</v>
+        <v>8.677867214884881</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>32.9713249494678</v>
+        <v>22.25909637833649</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.90877078998445</v>
+        <v>17.71873891406995</v>
       </c>
       <c r="C23">
-        <v>6.116047609646307</v>
+        <v>7.196328283603735</v>
       </c>
       <c r="D23">
-        <v>13.80925659605872</v>
+        <v>10.65877936747722</v>
       </c>
       <c r="E23">
-        <v>13.97112356052639</v>
+        <v>8.964946064345373</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.71416495037223</v>
+        <v>2.112603971130973</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>31.40986029846551</v>
+        <v>20.34461181420678</v>
       </c>
       <c r="J23">
-        <v>8.404697188439828</v>
+        <v>4.791790210983536</v>
       </c>
       <c r="K23">
-        <v>12.81882421801853</v>
+        <v>14.2036109036115</v>
       </c>
       <c r="L23">
-        <v>12.6200717085765</v>
+        <v>8.606526053652134</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>32.9942523612616</v>
+        <v>22.21296415539571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.57769821584346</v>
+        <v>16.36737888215218</v>
       </c>
       <c r="C24">
-        <v>5.989108324965345</v>
+        <v>6.872861884793764</v>
       </c>
       <c r="D24">
-        <v>13.77239432949824</v>
+        <v>10.22750311553152</v>
       </c>
       <c r="E24">
-        <v>13.98912483328339</v>
+        <v>8.826105663134177</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.717317935813291</v>
+        <v>2.121969364274306</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.52898013384464</v>
+        <v>20.41142057213025</v>
       </c>
       <c r="J24">
-        <v>8.419073813282854</v>
+        <v>4.831599422776669</v>
       </c>
       <c r="K24">
-        <v>12.58747442955968</v>
+        <v>13.17536210201789</v>
       </c>
       <c r="L24">
-        <v>12.6102140774211</v>
+        <v>8.33896958012836</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.09111859520216</v>
+        <v>22.07319762885513</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.22226429749886</v>
+        <v>14.90145983838237</v>
       </c>
       <c r="C25">
-        <v>5.846525715572142</v>
+        <v>6.507757470422288</v>
       </c>
       <c r="D25">
-        <v>13.74151651722875</v>
+        <v>9.76612041597776</v>
       </c>
       <c r="E25">
-        <v>14.01535023656986</v>
+        <v>8.691370793689165</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.720974698417338</v>
+        <v>2.132395964207698</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.67613254170012</v>
+        <v>20.54351768245147</v>
       </c>
       <c r="J25">
-        <v>8.435814514011994</v>
+        <v>4.876385391535502</v>
       </c>
       <c r="K25">
-        <v>12.34043866649845</v>
+        <v>11.97813385912148</v>
       </c>
       <c r="L25">
-        <v>12.60596761780058</v>
+        <v>8.056863349081237</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>33.21698723409378</v>
+        <v>21.99179796230617</v>
       </c>
     </row>
   </sheetData>
